--- a/Translation_file.xlsx
+++ b/Translation_file.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19415"/>
   <workbookPr date1904="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFD6A1F-8A55-475A-A746-5D256378781C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Translation - Adoption form" sheetId="1" r:id="rId4"/>
-    <sheet name="Translation - Our Dogs" sheetId="2" r:id="rId5"/>
-    <sheet name="Translation - Contact us" sheetId="3" r:id="rId6"/>
-    <sheet name="Translation - Donations" sheetId="4" r:id="rId7"/>
-    <sheet name="Translation - Flight Buddy" sheetId="5" r:id="rId8"/>
-    <sheet name="Translation - Foster" sheetId="6" r:id="rId9"/>
-    <sheet name="Translation - Newsletters" sheetId="7" r:id="rId10"/>
-    <sheet name="Translation - Volunteer" sheetId="8" r:id="rId11"/>
-    <sheet name="Translation - Navbar" sheetId="9" r:id="rId12"/>
+    <sheet name="Translation - Adoption form" sheetId="1" r:id="rId1"/>
+    <sheet name="Translation - Our Dogs" sheetId="2" r:id="rId2"/>
+    <sheet name="Translation - Contact us" sheetId="3" r:id="rId3"/>
+    <sheet name="Translation - Donations" sheetId="4" r:id="rId4"/>
+    <sheet name="Translation - Flight Buddy" sheetId="5" r:id="rId5"/>
+    <sheet name="Translation - Foster" sheetId="6" r:id="rId6"/>
+    <sheet name="Translation - Newsletters" sheetId="7" r:id="rId7"/>
+    <sheet name="Translation - Volunteer" sheetId="8" r:id="rId8"/>
+    <sheet name="Translation - Navbar" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="179016" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="227">
   <si>
     <t>Adoption form</t>
   </si>
@@ -52,6 +55,9 @@
     <t>강아지 이름</t>
   </si>
   <si>
+    <t>Имя собаки</t>
+  </si>
+  <si>
     <t>adoptname</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>성함</t>
   </si>
   <si>
+    <t>Ваше имя</t>
+  </si>
+  <si>
     <t>adoptphone</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>전화번호</t>
   </si>
   <si>
+    <t>Моб. Телефон</t>
+  </si>
+  <si>
     <t>adoptemail</t>
   </si>
   <si>
@@ -79,6 +91,9 @@
     <t>메일주소</t>
   </si>
   <si>
+    <t>Почта</t>
+  </si>
+  <si>
     <t>adoptzip</t>
   </si>
   <si>
@@ -88,6 +103,9 @@
     <t>우편번호</t>
   </si>
   <si>
+    <t>Почтовый индекс</t>
+  </si>
+  <si>
     <t>submitmessage</t>
   </si>
   <si>
@@ -109,6 +127,9 @@
     <t>성별</t>
   </si>
   <si>
+    <t>Пол</t>
+  </si>
+  <si>
     <t>breed</t>
   </si>
   <si>
@@ -118,6 +139,9 @@
     <t>품종</t>
   </si>
   <si>
+    <t>Порода</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -127,6 +151,9 @@
     <t>나이</t>
   </si>
   <si>
+    <t>Возраст</t>
+  </si>
+  <si>
     <t>learn more about me</t>
   </si>
   <si>
@@ -136,6 +163,9 @@
     <t>추가 정보</t>
   </si>
   <si>
+    <t>Узнай больше обо мне</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
@@ -145,6 +175,9 @@
     <t>체중</t>
   </si>
   <si>
+    <t>Вес</t>
+  </si>
+  <si>
     <t>arrival date</t>
   </si>
   <si>
@@ -154,6 +187,9 @@
     <t>들어온 날짜</t>
   </si>
   <si>
+    <t>Дата прибытия</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -163,6 +199,9 @@
     <t>입양 가능 여부</t>
   </si>
   <si>
+    <t>Статус</t>
+  </si>
+  <si>
     <t>spayed</t>
   </si>
   <si>
@@ -172,6 +211,9 @@
     <t>중성화 수술 여부</t>
   </si>
   <si>
+    <t>Стерилизованный</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -181,6 +223,9 @@
     <t>비고</t>
   </si>
   <si>
+    <t>Заметки</t>
+  </si>
+  <si>
     <t>adopt</t>
   </si>
   <si>
@@ -190,6 +235,9 @@
     <t>입양</t>
   </si>
   <si>
+    <t>Принять</t>
+  </si>
+  <si>
     <t>Contact us</t>
   </si>
   <si>
@@ -202,6 +250,9 @@
     <t>이름</t>
   </si>
   <si>
+    <t>Имя</t>
+  </si>
+  <si>
     <t>contactsurname</t>
   </si>
   <si>
@@ -211,9 +262,15 @@
     <t>성</t>
   </si>
   <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
     <t>contactphone</t>
   </si>
   <si>
+    <t>Телефон</t>
+  </si>
+  <si>
     <t>contactemail</t>
   </si>
   <si>
@@ -226,6 +283,9 @@
     <t>홈페이지</t>
   </si>
   <si>
+    <t>Веб-сайт</t>
+  </si>
+  <si>
     <t>contactsubject</t>
   </si>
   <si>
@@ -235,6 +295,9 @@
     <t>제목</t>
   </si>
   <si>
+    <t>Тема</t>
+  </si>
+  <si>
     <t>contactinformation</t>
   </si>
   <si>
@@ -244,12 +307,18 @@
     <t>정보</t>
   </si>
   <si>
+    <t>Информация</t>
+  </si>
+  <si>
     <t>contactadoption</t>
   </si>
   <si>
     <t>Adoption</t>
   </si>
   <si>
+    <t>Усыновление</t>
+  </si>
+  <si>
     <t>contactvolunteer</t>
   </si>
   <si>
@@ -259,6 +328,9 @@
     <t>봉사</t>
   </si>
   <si>
+    <t>Волонтерство</t>
+  </si>
+  <si>
     <t>contactfoster</t>
   </si>
   <si>
@@ -268,6 +340,9 @@
     <t>임시보호</t>
   </si>
   <si>
+    <t>Временное жилье</t>
+  </si>
+  <si>
     <t>contactflight</t>
   </si>
   <si>
@@ -277,6 +352,9 @@
     <t>비행 보호자</t>
   </si>
   <si>
+    <t>Опекун на полет</t>
+  </si>
+  <si>
     <t>contactdonation</t>
   </si>
   <si>
@@ -286,6 +364,9 @@
     <t>기부</t>
   </si>
   <si>
+    <t>Спонсорство</t>
+  </si>
+  <si>
     <t>contactpartnership</t>
   </si>
   <si>
@@ -295,6 +376,9 @@
     <t>파트너 기관</t>
   </si>
   <si>
+    <t>Партнерство</t>
+  </si>
+  <si>
     <t>contactother</t>
   </si>
   <si>
@@ -304,6 +388,9 @@
     <t>기타</t>
   </si>
   <si>
+    <t>Другое</t>
+  </si>
+  <si>
     <t>contactmessagefield</t>
   </si>
   <si>
@@ -313,6 +400,12 @@
     <t>내용</t>
   </si>
   <si>
+    <t>Сообщение</t>
+  </si>
+  <si>
+    <t>Отправить</t>
+  </si>
+  <si>
     <t>Donations</t>
   </si>
   <si>
@@ -334,6 +427,9 @@
     <t>금액</t>
   </si>
   <si>
+    <t>Сумма</t>
+  </si>
+  <si>
     <t>donationcurrency</t>
   </si>
   <si>
@@ -343,12 +439,18 @@
     <t>통화</t>
   </si>
   <si>
+    <t>Валюта</t>
+  </si>
+  <si>
     <t>donatebutton</t>
   </si>
   <si>
     <t>Donate!</t>
   </si>
   <si>
+    <t>Пожертвовать!</t>
+  </si>
+  <si>
     <t>Flight Buddy</t>
   </si>
   <si>
@@ -361,6 +463,9 @@
     <t>출발일</t>
   </si>
   <si>
+    <t>Дата вылета</t>
+  </si>
+  <si>
     <t>destination</t>
   </si>
   <si>
@@ -370,6 +475,9 @@
     <t>최종 목적지</t>
   </si>
   <si>
+    <t xml:space="preserve">Конечный пункт </t>
+  </si>
+  <si>
     <t>travelername</t>
   </si>
   <si>
@@ -403,6 +511,9 @@
     <t>주소</t>
   </si>
   <si>
+    <t>Ваш Адрес</t>
+  </si>
+  <si>
     <t>fosterstartdate</t>
   </si>
   <si>
@@ -412,6 +523,9 @@
     <t>임시보호 시작 가능일</t>
   </si>
   <si>
+    <t>С какого числа</t>
+  </si>
+  <si>
     <t>fosterenddate</t>
   </si>
   <si>
@@ -421,6 +535,9 @@
     <t>임시보호 가능 마지막 날</t>
   </si>
   <si>
+    <t>По какое число</t>
+  </si>
+  <si>
     <t>foster other</t>
   </si>
   <si>
@@ -430,6 +547,9 @@
     <t>가정 내 아동 및 다른 애완동물의 거주 여부 등 기타 사항을 기재해주세요.</t>
   </si>
   <si>
+    <t>Пожалуйста, сообщите нам, есть ли какие-либо особые обстоятельства, которые необходимо рассмотреть, прежде чем мы попросим вас взять собаку. (Дети в доме, другие домашние животные, ограничения на проживание и т. д.)</t>
+  </si>
+  <si>
     <t>Newsletters</t>
   </si>
   <si>
@@ -457,6 +577,9 @@
     <t>봉사 분류</t>
   </si>
   <si>
+    <t>Категория</t>
+  </si>
+  <si>
     <t>volunteerclean</t>
   </si>
   <si>
@@ -466,6 +589,9 @@
     <t>청소</t>
   </si>
   <si>
+    <t>Уборка</t>
+  </si>
+  <si>
     <t>volunteerdrive</t>
   </si>
   <si>
@@ -475,6 +601,9 @@
     <t>운전</t>
   </si>
   <si>
+    <t>Вождение</t>
+  </si>
+  <si>
     <t>volunteeradmin</t>
   </si>
   <si>
@@ -484,6 +613,9 @@
     <t>사무</t>
   </si>
   <si>
+    <t>Административная работа</t>
+  </si>
+  <si>
     <t>volunteerflight</t>
   </si>
   <si>
@@ -493,6 +625,9 @@
     <t>Donation</t>
   </si>
   <si>
+    <t>Пожертвование</t>
+  </si>
+  <si>
     <t>volunteeravailability</t>
   </si>
   <si>
@@ -502,6 +637,9 @@
     <t>가능 시간대</t>
   </si>
   <si>
+    <t>Доступное время</t>
+  </si>
+  <si>
     <t>volunteerstart</t>
   </si>
   <si>
@@ -529,6 +667,9 @@
     <t>About Us</t>
   </si>
   <si>
+    <t>О нас</t>
+  </si>
+  <si>
     <t>navflight</t>
   </si>
   <si>
@@ -547,22 +688,28 @@
     <t>Stories</t>
   </si>
   <si>
+    <t>Истории</t>
+  </si>
+  <si>
     <t>navcontact</t>
   </si>
   <si>
     <t>Contact Us</t>
   </si>
   <si>
+    <t>Свяжитесь с нами</t>
+  </si>
+  <si>
     <t>navnewsletter</t>
+  </si>
+  <si>
+    <t>Новости</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -575,7 +722,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -716,76 +863,76 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,26 +942,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1013,7 +1219,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1032,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,9 +1489,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1302,7 +1514,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1321,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,7 +1585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +1663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,7 +1715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,7 +1741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,9 +1780,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1584,7 +1802,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1603,7 +1821,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,7 +1851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +1877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,7 +1903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,7 +2007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1815,7 +2033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +2059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1854,182 +2072,196 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="21.1" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="21.2" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="9">
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="10">
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="9">
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2037,211 +2269,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F13"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="14" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="10">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="9">
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.9" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s" s="10">
+    </row>
+    <row r="6" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.9" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.9" customHeight="1">
-      <c r="A10" t="s" s="8">
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s" s="9">
+    </row>
+    <row r="8" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s" s="10">
+    </row>
+    <row r="9" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2249,287 +2498,317 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F18"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.7812" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="15" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="14" customWidth="1"/>
+    <col min="2" max="256" width="16.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s" s="9">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s" s="9">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="20.9" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="20.9" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2537,165 +2816,172 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="16" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2703,171 +2989,180 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="17" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.9" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s" s="9">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2875,183 +3170,196 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="18" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s" s="9">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s" s="10">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33.200000000000003" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="152.1" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="33.2" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="152.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>135</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3059,153 +3367,156 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="19" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="19" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3213,239 +3524,261 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F15"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.1641" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="20" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="19" customWidth="1"/>
+    <col min="2" max="256" width="16.28515625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>147</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>150</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>153</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.9" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.9" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>159</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" ht="20.9" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>162</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="20.9" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>164</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="3" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.1" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.85" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.45" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3453,167 +3786,180 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="21" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="B4" t="s" s="9">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>176</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
